--- a/report-pfge.xlsx
+++ b/report-pfge.xlsx
@@ -4,31 +4,99 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="tree cat" sheetId="1" r:id="rId1"/>
+    <sheet name="trees" sheetId="2" r:id="rId2"/>
+    <sheet name="person" sheetId="3" r:id="rId3"/>
+    <sheet name="persontree" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>fdgfdgfd</t>
-  </si>
-  <si>
-    <t>sgdfgdf</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+  <si>
+    <t>TreeID</t>
+  </si>
+  <si>
+    <t>TreeName</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>GEOLocation</t>
+  </si>
+  <si>
+    <t>plantationdate</t>
+  </si>
+  <si>
+    <t>Plantation</t>
+  </si>
+  <si>
+    <t>S.No.</t>
+  </si>
+  <si>
+    <t>Plant Name</t>
+  </si>
+  <si>
+    <t>Plant ID</t>
+  </si>
+  <si>
+    <t>Plantation Status</t>
+  </si>
+  <si>
+    <t>Planted Location</t>
+  </si>
+  <si>
+    <t>Planted Date</t>
+  </si>
+  <si>
+    <t>Planted By</t>
+  </si>
+  <si>
+    <t>G-Map Information</t>
+  </si>
+  <si>
+    <t>Adopted By</t>
+  </si>
+  <si>
+    <t>Chakrasia</t>
+  </si>
+  <si>
+    <t>Planted</t>
+  </si>
+  <si>
+    <t>Near Classic Pkl office</t>
+  </si>
+  <si>
+    <t>Board Members</t>
+  </si>
+  <si>
+    <t>PersonId</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>fbcontact</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>twitter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -36,16 +104,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12.1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12.1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7F7F7F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -53,12 +146,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,22 +475,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="6">
+        <v>41797</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="F6" t="s">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -376,7 +629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -388,11 +641,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
